--- a/数据库设计相关/数据字典.xlsx
+++ b/数据库设计相关/数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="253">
   <si>
     <t>数据库字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -912,6 +912,117 @@
   </si>
   <si>
     <t>标示信号源为红外或者是射频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键类型表&lt;tb_keyType&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvr_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(40)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_keyType_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统日志表&lt;tb_system_log&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中控ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtm_createTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vr_key_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vr_controller_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_central_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_systemLog_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(33)</t>
+  </si>
+  <si>
+    <t>dataTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1282,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2794,8 +2905,188 @@
         <v>177</v>
       </c>
     </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" t="s">
+        <v>233</v>
+      </c>
+      <c r="E111" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" t="s">
+        <v>228</v>
+      </c>
+      <c r="D116" t="s">
+        <v>251</v>
+      </c>
+      <c r="E116" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" t="s">
+        <v>247</v>
+      </c>
+      <c r="D117" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>244</v>
+      </c>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" t="s">
+        <v>228</v>
+      </c>
+      <c r="D118" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" t="s">
+        <v>248</v>
+      </c>
+      <c r="D119" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>242</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" t="s">
+        <v>249</v>
+      </c>
+      <c r="D120" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" t="s">
+        <v>250</v>
+      </c>
+      <c r="D121" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A114:F114"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A88:F88"/>
     <mergeCell ref="A99:F99"/>

--- a/数据库设计相关/数据字典.xlsx
+++ b/数据库设计相关/数据字典.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服务器端" sheetId="1" r:id="rId1"/>
+    <sheet name="Android客户端" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="322">
   <si>
     <t>数据库字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1023,6 +1024,282 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板布局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_controllerModel_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_machineType_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(40)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hxl 2014.7.20 类型由int改为varchar(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_machineInfoID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvr_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vr_backgroundImg_path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vr_modelLayout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_controllerModelType_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_controllerModelType_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvr_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板类型名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verOrHoz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_modelPosition_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_controllerModel_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_keyType_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_screenNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_verOrHoz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vr_resolution</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvr_remarks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/用户表&lt;tb_user&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/用户来源表&lt;tb_userSource&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/中控设备表&lt;tb_central&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/用户中控设备表&lt;tb_user_central&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/品牌表&lt;tb_brand&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/设备表&lt;tb_machine&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/设备类型表&lt;tb_machineInfo&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/品牌使用资料表&lt;tb_brandUsageStatistics&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/按键类型_遥控模板映射表&lt;tb_keytypeCtrtype&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/遥控器&lt;tb_controller&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/按键&lt;tb_key&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/红外信号&lt;tb_infrared&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13/遥控来源&lt;tb_controllerSource&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14/信号源类型&lt;tb_signalType&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15/按键类型表&lt;tb_keyType&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/遥控器模板表&lt;tb_controller_model&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/遥控器模板类型表&lt;tb_controller_model_type&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18/模板位置表&lt;tb_model_position&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1395,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A88" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3085,17 +3362,17 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="A109:F109"/>
     <mergeCell ref="A114:F114"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A88:F88"/>
     <mergeCell ref="A99:F99"/>
     <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A26:F26"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A60:F60"/>
@@ -3106,4 +3383,1963 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J139"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>200</v>
+      </c>
+      <c r="J18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>261</v>
+      </c>
+      <c r="D63" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" t="s">
+        <v>65</v>
+      </c>
+      <c r="E79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>129</v>
+      </c>
+      <c r="D90" t="s">
+        <v>65</v>
+      </c>
+      <c r="E90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+      <c r="C91" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s">
+        <v>200</v>
+      </c>
+      <c r="D94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>199</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>149</v>
+      </c>
+      <c r="B102" t="s">
+        <v>214</v>
+      </c>
+      <c r="C102" t="s">
+        <v>217</v>
+      </c>
+      <c r="D102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A104" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>65</v>
+      </c>
+      <c r="E106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>149</v>
+      </c>
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" t="s">
+        <v>223</v>
+      </c>
+      <c r="D107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>231</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" t="s">
+        <v>65</v>
+      </c>
+      <c r="E111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C112" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>258</v>
+      </c>
+      <c r="B116" t="s">
+        <v>253</v>
+      </c>
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" t="s">
+        <v>65</v>
+      </c>
+      <c r="E116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>266</v>
+      </c>
+      <c r="B117" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" t="s">
+        <v>262</v>
+      </c>
+      <c r="D117" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>259</v>
+      </c>
+      <c r="B118" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118" t="s">
+        <v>265</v>
+      </c>
+      <c r="D118" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>267</v>
+      </c>
+      <c r="B119" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" t="s">
+        <v>272</v>
+      </c>
+      <c r="D119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>269</v>
+      </c>
+      <c r="B121" t="s">
+        <v>257</v>
+      </c>
+      <c r="C121" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A123" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" t="s">
+        <v>270</v>
+      </c>
+      <c r="D125" t="s">
+        <v>278</v>
+      </c>
+      <c r="E125" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" t="s">
+        <v>277</v>
+      </c>
+      <c r="D126" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>289</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>129</v>
+      </c>
+      <c r="D130" t="s">
+        <v>65</v>
+      </c>
+      <c r="E130" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>290</v>
+      </c>
+      <c r="B131" t="s">
+        <v>280</v>
+      </c>
+      <c r="C131" t="s">
+        <v>261</v>
+      </c>
+      <c r="D131" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>291</v>
+      </c>
+      <c r="B132" t="s">
+        <v>281</v>
+      </c>
+      <c r="C132" t="s">
+        <v>270</v>
+      </c>
+      <c r="D132" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>292</v>
+      </c>
+      <c r="B133" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" t="s">
+        <v>300</v>
+      </c>
+      <c r="D133" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>293</v>
+      </c>
+      <c r="B134" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" t="s">
+        <v>300</v>
+      </c>
+      <c r="D134" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>294</v>
+      </c>
+      <c r="B135" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" t="s">
+        <v>300</v>
+      </c>
+      <c r="D135" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>295</v>
+      </c>
+      <c r="B136" t="s">
+        <v>285</v>
+      </c>
+      <c r="C136" t="s">
+        <v>300</v>
+      </c>
+      <c r="D136" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>296</v>
+      </c>
+      <c r="B137" t="s">
+        <v>286</v>
+      </c>
+      <c r="C137" t="s">
+        <v>300</v>
+      </c>
+      <c r="D137" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>297</v>
+      </c>
+      <c r="B138" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" t="s">
+        <v>299</v>
+      </c>
+      <c r="D138" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>298</v>
+      </c>
+      <c r="B139" t="s">
+        <v>288</v>
+      </c>
+      <c r="C139" t="s">
+        <v>277</v>
+      </c>
+      <c r="D139" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A38:F38"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>